--- a/exercises.xlsx
+++ b/exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcz\GitHub\ml.school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82C0372-EB9F-496D-9BF5-3B7B04BAAF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67AB91A-4132-4842-83E5-D3D6371D5ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{4731F0A8-9E3A-4D2A-9B03-04852313B1EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="7" xr2:uid="{4731F0A8-9E3A-4D2A-9B03-04852313B1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="5Fold" sheetId="5" r:id="rId5"/>
     <sheet name="pytorch_bkend_4keras" sheetId="6" r:id="rId6"/>
     <sheet name="Seq_vs_decTree" sheetId="7" r:id="rId7"/>
+    <sheet name="evaluation" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">run_logs!$A$1:$H$499</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9516" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9775" uniqueCount="1781">
   <si>
     <t>species</t>
   </si>
@@ -5204,12 +5205,306 @@
   <si>
     <t xml:space="preserve">    y_validation = validation_data.iloc[:, -1].values</t>
   </si>
+  <si>
+    <t>from tensorflow import keras</t>
+  </si>
+  <si>
+    <t>def evaluate(model_path, test_path, output_path):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    X_test = pd.read_csv(Path(test_path) / "test.csv")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    y_test = X_test[X_test.columns[-1]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    X_test = X_test.drop(X_test.columns[-1], axis=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Let's now extract the model package so we can load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # it in memory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    with tarfile.open(Path(model_path) / "model.tar.gz") as tar:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    model = keras.models.load_model(Path(model_path) / "001")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    predictions = np.argmax(model.predict(X_test), axis=-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy = accuracy_score(y_test, predictions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(f"Test accuracy: {accuracy}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Let's create an evaluation report using the model accuracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    evaluation_report = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "metrics": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "accuracy": {"value": accuracy},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Path(output_path).mkdir(parents=True, exist_ok=True)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    with open(Path(output_path) / "evaluation.json", "w") as f:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        f.write(json.dumps(evaluation_report))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    evaluate(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        model_path="/opt/ml/processing/model/",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        test_path="/opt/ml/processing/test/",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        output_path="/opt/ml/processing/evaluation/",</t>
+  </si>
+  <si>
+    <t>GPT</t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>Co-pilot</t>
+  </si>
+  <si>
+    <t>from sklearn.metrics import accuracy_score, precision_score, recall_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(f"Precision: {precision}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(f"Recall: {recall}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Let's create an evaluation report using the model accuracy, precision, and recall.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "precision": {"value": precision},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "recall": {"value": recall},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    precision = precision_score(y_test, predictions, average="weighted")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    recall = recall_score(y_test, predictions, average="weighted")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Let's create an evaluation report using the model metrics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         tar.extractall(path=Path(model_path))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(f"Test precision (weighted): {precision}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(f"Test recall (weighted): {recall}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Create evaluation report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         f.write(json.dumps(evaluation_report))</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    precision = precision_score(y_test, predictions, average='</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF00602B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>weighted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    recall = recall_score(y_test, predictions, average='</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF00602B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>weighted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    precision = precision_score(y_test, predictions, average='</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>macro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    recall = recall_score(y_test, predictions, average='</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>macro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>')</t>
+    </r>
+  </si>
+  <si>
+    <t>Co-pilot - with specific Island accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Predict class probabilities (using predict method)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    class_probs = model.predict(X_test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Calculate overall accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(f"Overall Test accuracy: {overall_accuracy:.4f}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Calculate accuracy for each island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    island_accuracy = {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for island in unique_islands:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        island_y_test = y_test[island_mask]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        island_predictions = predictions[island_mask]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        island_accuracy[island] = island_acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print(f"Accuracy for {island}: {island_acc:.4f}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    predictions = np.argmax(class_probs, axis=-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    overall_accuracy = accuracy_score(y_test, predictions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    unique_islands = np.unique(X_test[:, 0])  # Assuming island is the 1st column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        island_mask = (X_test[:, 0] == island)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        island_acc = accuracy_score(island_y_test, island_predictions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "overall_accuracy": {"value": overall_accuracy},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "island_accuracy": island_accuracy,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Get the one-hot encoded representation of 'island' from the last column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    island_cols = X_test.iloc[:, -3:]  # Assuming 'island' was encoded with 3 columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    unique_islands = island_cols.columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        island_mask = island_cols[island] == 1</t>
+  </si>
+  <si>
+    <t>Chat-GPT - with specific Island (one-hot) accuracy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5350,8 +5645,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5403,6 +5705,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF6EA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5460,7 +5774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5527,6 +5841,10 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5536,6 +5854,7 @@
   <colors>
     <mruColors>
       <color rgb="FF00602B"/>
+      <color rgb="FFEFF6EA"/>
     </mruColors>
   </colors>
   <extLst>
@@ -51673,9 +51992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF35AFFB-A3CF-47E0-BF16-5C6A58BDD16B}">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -52016,7 +52335,7 @@
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="42" t="str">
-        <f>IF(A20=E19,"","x")</f>
+        <f t="shared" ref="D20:D32" si="2">IF(A20=E19,"","x")</f>
         <v>x</v>
       </c>
       <c r="E20" s="38" t="s">
@@ -52033,7 +52352,7 @@
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="42" t="str">
-        <f>IF(A21=E20,"","x")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="E21" s="38" t="s">
@@ -52050,7 +52369,7 @@
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="42" t="str">
-        <f>IF(A22=E21,"","x")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="E22" s="38" t="s">
@@ -52064,7 +52383,7 @@
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="42" t="str">
-        <f>IF(A23=E22,"","x")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="E23" s="40" t="s">
@@ -52081,7 +52400,7 @@
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="42" t="str">
-        <f>IF(A24=E23,"","x")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="E24" s="40" t="s">
@@ -52098,7 +52417,7 @@
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="42" t="str">
-        <f>IF(A25=E24,"","x")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="E25" s="40" t="s">
@@ -52115,7 +52434,7 @@
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="42" t="str">
-        <f>IF(A26=E25,"","x")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="E26" s="40"/>
@@ -52130,7 +52449,7 @@
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="42" t="str">
-        <f>IF(A27=E26,"","x")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="E27" s="40" t="s">
@@ -52147,7 +52466,7 @@
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="42" t="str">
-        <f>IF(A28=E27,"","x")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="E28" s="40" t="s">
@@ -52164,7 +52483,7 @@
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="42" t="str">
-        <f>IF(A29=E28,"","x")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="E29" s="40" t="s">
@@ -52178,7 +52497,7 @@
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="42" t="str">
-        <f>IF(A30=E29,"","x")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="E30" s="40" t="s">
@@ -52188,7 +52507,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" s="40"/>
       <c r="D31" s="42" t="str">
-        <f>IF(A31=E30,"","x")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="E31" s="40" t="s">
@@ -52198,7 +52517,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" s="40"/>
       <c r="D32" s="42" t="str">
-        <f>IF(A32=E31,"","x")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="E32" s="40"/>
@@ -52206,7 +52525,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C33" s="40"/>
       <c r="D33" s="42" t="str">
-        <f>IF(A33=E33,"","x")</f>
+        <f t="shared" ref="D33:D64" si="3">IF(A33=E33,"","x")</f>
         <v/>
       </c>
       <c r="E33" s="40"/>
@@ -52223,7 +52542,7 @@
         <v>1489</v>
       </c>
       <c r="D34" s="42" t="str">
-        <f>IF(A34=E34,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E34" s="40" t="s">
@@ -52242,7 +52561,7 @@
         <v>1488</v>
       </c>
       <c r="D35" s="42" t="str">
-        <f>IF(A35=E35,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E35" s="40" t="s">
@@ -52261,7 +52580,7 @@
         <v>1486</v>
       </c>
       <c r="D36" s="42" t="str">
-        <f>IF(A36=E36,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E36" s="38" t="s">
@@ -52280,7 +52599,7 @@
         <v>1485</v>
       </c>
       <c r="D37" s="42" t="str">
-        <f>IF(A37=E37,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E37" s="38" t="s">
@@ -52299,7 +52618,7 @@
         <v>1484</v>
       </c>
       <c r="D38" s="42" t="str">
-        <f>IF(A38=E38,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E38" s="38" t="s">
@@ -52318,7 +52637,7 @@
         <v>1496</v>
       </c>
       <c r="D39" s="42" t="str">
-        <f>IF(A39=E39,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E39" s="38" t="s">
@@ -52337,7 +52656,7 @@
         <v>1636</v>
       </c>
       <c r="D40" s="42" t="str">
-        <f>IF(A40=E40,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E40" s="38" t="s">
@@ -52353,7 +52672,7 @@
         <v>x</v>
       </c>
       <c r="D41" s="42" t="str">
-        <f>IF(A41=E41,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E41" s="38" t="s">
@@ -52369,7 +52688,7 @@
         <v>x</v>
       </c>
       <c r="D42" s="42" t="str">
-        <f>IF(A42=E42,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E42" s="38" t="s">
@@ -52388,7 +52707,7 @@
         <v>1477</v>
       </c>
       <c r="D43" s="42" t="str">
-        <f>IF(A43=E43,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E43" s="38" t="s">
@@ -52404,7 +52723,7 @@
         <v>x</v>
       </c>
       <c r="D44" s="42" t="str">
-        <f>IF(A44=E44,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E44" s="38" t="s">
@@ -52417,7 +52736,7 @@
         <v/>
       </c>
       <c r="D45" s="42" t="str">
-        <f>IF(A45=E45,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -52427,7 +52746,7 @@
         <v/>
       </c>
       <c r="D46" s="42" t="str">
-        <f>IF(A46=E46,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -52437,7 +52756,7 @@
         <v/>
       </c>
       <c r="D47" s="42" t="str">
-        <f>IF(A47=E47,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E47" s="38" t="s">
@@ -52450,7 +52769,7 @@
         <v/>
       </c>
       <c r="D48" s="42" t="str">
-        <f>IF(A48=E48,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E48" s="38" t="s">
@@ -52463,7 +52782,7 @@
         <v/>
       </c>
       <c r="D49" s="42" t="str">
-        <f>IF(A49=E49,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E49" s="38" t="s">
@@ -52476,7 +52795,7 @@
         <v/>
       </c>
       <c r="D50" s="42" t="str">
-        <f>IF(A50=E50,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E50" s="38" t="s">
@@ -52489,7 +52808,7 @@
         <v/>
       </c>
       <c r="D51" s="42" t="str">
-        <f>IF(A51=E51,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -52499,7 +52818,7 @@
         <v/>
       </c>
       <c r="D52" s="42" t="str">
-        <f>IF(A52=E52,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E52" s="38" t="s">
@@ -52512,7 +52831,7 @@
         <v/>
       </c>
       <c r="D53" s="42" t="str">
-        <f>IF(A53=E53,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E53" s="38" t="s">
@@ -52525,7 +52844,7 @@
         <v/>
       </c>
       <c r="D54" s="42" t="str">
-        <f>IF(A54=E54,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -52535,7 +52854,7 @@
         <v/>
       </c>
       <c r="D55" s="42" t="str">
-        <f>IF(A55=E55,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E55" s="38" t="s">
@@ -52548,7 +52867,7 @@
         <v/>
       </c>
       <c r="D56" s="42" t="str">
-        <f>IF(A56=E56,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E56" s="38" t="s">
@@ -52561,7 +52880,7 @@
         <v/>
       </c>
       <c r="D57" s="42" t="str">
-        <f>IF(A57=E57,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -52577,7 +52896,7 @@
         <v>1497</v>
       </c>
       <c r="D58" s="42" t="str">
-        <f>IF(A58=E58,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E58" s="38" t="s">
@@ -52596,7 +52915,7 @@
         <v>1475</v>
       </c>
       <c r="D59" s="42" t="str">
-        <f>IF(A59=E59,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E59" s="38" t="s">
@@ -52615,7 +52934,7 @@
         <v>1474</v>
       </c>
       <c r="D60" s="42" t="str">
-        <f>IF(A60=E60,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E60" s="38" t="s">
@@ -52634,7 +52953,7 @@
         <v>1471</v>
       </c>
       <c r="D61" s="42" t="str">
-        <f>IF(A61=E61,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E61" s="38" t="s">
@@ -52647,7 +52966,7 @@
         <v/>
       </c>
       <c r="D62" s="42" t="str">
-        <f>IF(A62=E62,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E62" s="38" t="s">
@@ -52663,7 +52982,7 @@
         <v>1466</v>
       </c>
       <c r="D63" s="42" t="str">
-        <f>IF(A63=E63,"","x")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="E63" s="38" t="s">
@@ -52679,7 +52998,7 @@
         <v>1469</v>
       </c>
       <c r="D64" s="42" t="str">
-        <f>IF(A64=E64,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -52695,7 +53014,7 @@
         <v>1468</v>
       </c>
       <c r="D65" s="42" t="str">
-        <f>IF(A65=E65,"","x")</f>
+        <f t="shared" ref="D65:D96" si="4">IF(A65=E65,"","x")</f>
         <v/>
       </c>
       <c r="E65" s="38" t="s">
@@ -52714,7 +53033,7 @@
         <v>1465</v>
       </c>
       <c r="D66" s="42" t="str">
-        <f>IF(A66=E66,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E66" s="38" t="s">
@@ -52730,7 +53049,7 @@
         <v>x</v>
       </c>
       <c r="D67" s="42" t="str">
-        <f>IF(A67=E67,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E67" s="38" t="s">
@@ -52746,7 +53065,7 @@
         <v/>
       </c>
       <c r="D68" s="42" t="str">
-        <f>IF(A68=E68,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E68" s="38" t="s">
@@ -52755,14 +53074,14 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B69" s="42" t="str">
-        <f>IF(A72=C69,"","x")</f>
+        <f t="shared" ref="B69:B78" si="5">IF(A72=C69,"","x")</f>
         <v>x</v>
       </c>
       <c r="C69" s="38" t="s">
         <v>1637</v>
       </c>
       <c r="D69" s="42" t="str">
-        <f>IF(A69=E69,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E69" s="38" t="s">
@@ -52771,14 +53090,14 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B70" s="42" t="str">
-        <f>IF(A73=C70,"","x")</f>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="C70" s="38" t="s">
         <v>1638</v>
       </c>
       <c r="D70" s="42" t="str">
-        <f>IF(A70=E70,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E70" s="38" t="s">
@@ -52787,11 +53106,11 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B71" s="42" t="str">
-        <f>IF(A74=C71,"","x")</f>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="D71" s="42" t="str">
-        <f>IF(A71=E71,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -52800,11 +53119,11 @@
         <v>1454</v>
       </c>
       <c r="B72" s="42" t="str">
-        <f>IF(A75=C72,"","x")</f>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="D72" s="42" t="str">
-        <f>IF(A72=E72,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E72" s="38" t="s">
@@ -52816,11 +53135,11 @@
         <v>1452</v>
       </c>
       <c r="B73" s="42" t="str">
-        <f>IF(A76=C73,"","x")</f>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="D73" s="42" t="str">
-        <f>IF(A73=E73,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E73" s="38" t="s">
@@ -52832,11 +53151,11 @@
         <v>1450</v>
       </c>
       <c r="B74" s="42" t="str">
-        <f>IF(A77=C74,"","x")</f>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="D74" s="42" t="str">
-        <f>IF(A74=E74,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E74" s="38" t="s">
@@ -52848,11 +53167,11 @@
         <v>1449</v>
       </c>
       <c r="B75" s="42" t="str">
-        <f>IF(A78=C75,"","x")</f>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="D75" s="42" t="str">
-        <f>IF(A75=E75,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E75" s="38" t="s">
@@ -52864,11 +53183,11 @@
         <v>1447</v>
       </c>
       <c r="B76" s="42" t="str">
-        <f>IF(A79=C76,"","x")</f>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="D76" s="42" t="str">
-        <f>IF(A76=E76,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E76" s="38" t="s">
@@ -52880,11 +53199,11 @@
         <v>1446</v>
       </c>
       <c r="B77" s="42" t="str">
-        <f>IF(A80=C77,"","x")</f>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="D77" s="42" t="str">
-        <f>IF(A77=E77,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
     </row>
@@ -52893,11 +53212,11 @@
         <v>1445</v>
       </c>
       <c r="B78" s="42" t="str">
-        <f>IF(A81=C78,"","x")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D78" s="42" t="str">
-        <f>IF(A78=E78,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E78" s="38" t="s">
@@ -52913,7 +53232,7 @@
         <v>x</v>
       </c>
       <c r="D79" s="42" t="str">
-        <f>IF(A79=E79,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E79" s="38" t="s">
@@ -52929,7 +53248,7 @@
         <v>x</v>
       </c>
       <c r="D80" s="42" t="str">
-        <f>IF(A80=E80,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E80" s="38" t="s">
@@ -52942,17 +53261,17 @@
         <v>x</v>
       </c>
       <c r="D81" s="42" t="str">
-        <f>IF(A81=E81,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B82" s="42" t="str">
-        <f>IF(A88=C82,"","x")</f>
+        <f t="shared" ref="B82:B103" si="6">IF(A88=C82,"","x")</f>
         <v>x</v>
       </c>
       <c r="D82" s="42" t="str">
-        <f>IF(A82=E82,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E82" s="38" t="s">
@@ -52961,11 +53280,11 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B83" s="42" t="str">
-        <f>IF(A89=C83,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="D83" s="42" t="str">
-        <f>IF(A83=E83,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E83" s="38" t="s">
@@ -52977,11 +53296,11 @@
         <v>1442</v>
       </c>
       <c r="B84" s="42" t="str">
-        <f>IF(A90=C84,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="D84" s="42" t="str">
-        <f>IF(A84=E84,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E84" s="38" t="s">
@@ -52993,11 +53312,11 @@
         <v>1364</v>
       </c>
       <c r="B85" s="42" t="str">
-        <f>IF(A91=C85,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D85" s="42" t="str">
-        <f>IF(A85=E85,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E85" s="38" t="s">
@@ -53009,14 +53328,14 @@
         <v>1363</v>
       </c>
       <c r="B86" s="42" t="str">
-        <f>IF(A92=C86,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C86" s="38" t="s">
         <v>1587</v>
       </c>
       <c r="D86" s="42" t="str">
-        <f>IF(A86=E86,"","x")</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="E86" s="38" t="s">
@@ -53025,14 +53344,14 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B87" s="42" t="str">
-        <f>IF(A93=C87,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="C87" s="38" t="s">
         <v>1639</v>
       </c>
       <c r="D87" s="42" t="str">
-        <f>IF(A88=E87,"","x")</f>
+        <f t="shared" ref="D87:D114" si="7">IF(A88=E87,"","x")</f>
         <v>x</v>
       </c>
       <c r="E87" s="38" t="s">
@@ -53044,11 +53363,11 @@
         <v>1362</v>
       </c>
       <c r="B88" s="42" t="str">
-        <f>IF(A94=C88,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="D88" s="42" t="str">
-        <f>IF(A89=E88,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E88" s="38" t="s">
@@ -53060,11 +53379,11 @@
         <v>1361</v>
       </c>
       <c r="B89" s="42" t="str">
-        <f>IF(A95=C89,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="D89" s="42" t="str">
-        <f>IF(A90=E89,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E89" s="38" t="s">
@@ -53076,11 +53395,11 @@
         <v>1354</v>
       </c>
       <c r="B90" s="42" t="str">
-        <f>IF(A96=C90,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="D90" s="42" t="str">
-        <f>IF(A91=E90,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E90" s="38" t="s">
@@ -53089,11 +53408,11 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" s="42" t="str">
-        <f>IF(A97=C91,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="D91" s="42" t="str">
-        <f>IF(A92=E91,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
     </row>
@@ -53102,11 +53421,11 @@
         <v>1587</v>
       </c>
       <c r="B92" s="42" t="str">
-        <f>IF(A98=C92,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="D92" s="42" t="str">
-        <f>IF(A93=E92,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E92" s="38" t="s">
@@ -53118,11 +53437,11 @@
         <v>1360</v>
       </c>
       <c r="B93" s="42" t="str">
-        <f>IF(A99=C93,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="D93" s="42" t="str">
-        <f>IF(A94=E93,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E93" s="38" t="s">
@@ -53134,11 +53453,11 @@
         <v>1420</v>
       </c>
       <c r="B94" s="42" t="str">
-        <f>IF(A100=C94,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="D94" s="42" t="str">
-        <f>IF(A95=E94,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E94" s="38" t="s">
@@ -53150,14 +53469,14 @@
         <v>1416</v>
       </c>
       <c r="B95" s="42" t="str">
-        <f>IF(A101=C95,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C95" s="38" t="s">
         <v>1640</v>
       </c>
       <c r="D95" s="42" t="str">
-        <f>IF(A96=E95,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E95" s="38" t="s">
@@ -53169,14 +53488,14 @@
         <v>1412</v>
       </c>
       <c r="B96" s="42" t="str">
-        <f>IF(A102=C96,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="C96" s="38" t="s">
         <v>1641</v>
       </c>
       <c r="D96" s="42" t="str">
-        <f>IF(A97=E96,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E96" s="38" t="s">
@@ -53188,14 +53507,14 @@
         <v>1375</v>
       </c>
       <c r="B97" s="42" t="str">
-        <f>IF(A103=C97,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="C97" s="38" t="s">
         <v>1642</v>
       </c>
       <c r="D97" s="42" t="str">
-        <f>IF(A98=E97,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E97" s="38" t="s">
@@ -53207,14 +53526,14 @@
         <v>1373</v>
       </c>
       <c r="B98" s="42" t="str">
-        <f>IF(A104=C98,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C98" s="38" t="s">
         <v>1386</v>
       </c>
       <c r="D98" s="42" t="str">
-        <f>IF(A99=E98,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E98" s="38" t="s">
@@ -53226,11 +53545,11 @@
         <v>1355</v>
       </c>
       <c r="B99" s="42" t="str">
-        <f>IF(A105=C99,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D99" s="42" t="str">
-        <f>IF(A100=E99,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E99" s="38" t="s">
@@ -53242,11 +53561,11 @@
         <v>1354</v>
       </c>
       <c r="B100" s="42" t="str">
-        <f>IF(A106=C100,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="D100" s="42" t="str">
-        <f>IF(A101=E100,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E100" s="38" t="s">
@@ -53258,11 +53577,11 @@
         <v>1640</v>
       </c>
       <c r="B101" s="42" t="str">
-        <f>IF(A107=C101,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="D101" s="42" t="str">
-        <f>IF(A102=E101,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E101" s="38" t="s">
@@ -53274,11 +53593,11 @@
         <v>1399</v>
       </c>
       <c r="B102" s="42" t="str">
-        <f>IF(A108=C102,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="D102" s="42" t="str">
-        <f>IF(A103=E102,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
     </row>
@@ -53287,11 +53606,11 @@
         <v>1389</v>
       </c>
       <c r="B103" s="42" t="str">
-        <f>IF(A109=C103,"","x")</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="D103" s="42" t="str">
-        <f>IF(A104=E103,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E103" s="38" t="s">
@@ -53303,11 +53622,11 @@
         <v>1386</v>
       </c>
       <c r="B104" s="42" t="str">
-        <f>IF(A110=C109,"","x")</f>
+        <f t="shared" ref="B104:B110" si="8">IF(A110=C109,"","x")</f>
         <v/>
       </c>
       <c r="D104" s="42" t="str">
-        <f>IF(A105=E104,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E104" s="38" t="s">
@@ -53316,11 +53635,11 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B105" s="42" t="str">
-        <f>IF(A111=C110,"","x")</f>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="D105" s="42" t="str">
-        <f>IF(A106=E105,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
     </row>
@@ -53329,11 +53648,11 @@
         <v>1501</v>
       </c>
       <c r="B106" s="42" t="str">
-        <f>IF(A112=C111,"","x")</f>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="D106" s="42" t="str">
-        <f>IF(A107=E106,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
     </row>
@@ -53342,11 +53661,11 @@
         <v>1502</v>
       </c>
       <c r="B107" s="42" t="str">
-        <f>IF(A113=C112,"","x")</f>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="D107" s="42" t="str">
-        <f>IF(A108=E107,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
     </row>
@@ -53355,11 +53674,11 @@
         <v>1503</v>
       </c>
       <c r="B108" s="42" t="str">
-        <f>IF(A114=C113,"","x")</f>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="D108" s="42" t="str">
-        <f>IF(A109=E108,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
     </row>
@@ -53368,14 +53687,14 @@
         <v>1504</v>
       </c>
       <c r="B109" s="42" t="str">
-        <f>IF(A115=C114,"","x")</f>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
       <c r="C109" s="38" t="s">
         <v>1643</v>
       </c>
       <c r="D109" s="42" t="str">
-        <f>IF(A110=E109,"","x")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E109" s="38" t="s">
@@ -53387,14 +53706,14 @@
         <v>1643</v>
       </c>
       <c r="B110" s="42" t="str">
-        <f>IF(A116=C115,"","x")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C110" s="38" t="s">
         <v>1644</v>
       </c>
       <c r="D110" s="42" t="str">
-        <f>IF(A111=E110,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E110" s="38" t="s">
@@ -53409,7 +53728,7 @@
         <v>1645</v>
       </c>
       <c r="D111" s="42" t="str">
-        <f>IF(A112=E111,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="E111" s="38" t="s">
@@ -53421,7 +53740,7 @@
         <v>1542</v>
       </c>
       <c r="D112" s="42" t="str">
-        <f>IF(A113=E112,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
     </row>
@@ -53430,7 +53749,7 @@
         <v>1543</v>
       </c>
       <c r="D113" s="42" t="str">
-        <f>IF(A114=E113,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
     </row>
@@ -53439,7 +53758,7 @@
         <v>1544</v>
       </c>
       <c r="D114" s="42" t="str">
-        <f>IF(A115=E114,"","x")</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
     </row>
@@ -53458,4 +53777,2273 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5DE7B1-7C6D-4AF0-965F-7D2DF7DA8C3C}">
+  <dimension ref="A1:P73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="1.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="59.7109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.7109375" style="14" customWidth="1"/>
+    <col min="12" max="16" width="9.140625" style="14"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="30" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D1" s="28" t="str">
+        <f>IF(C1=E1,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F1" s="28" t="str">
+        <f>IF(E1=G1,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H1" s="28" t="str">
+        <f>IF(G1=I1,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J1" s="28" t="str">
+        <f>IF(I1=K1,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B2" s="28" t="str">
+        <f>IF(A2=C2,"","x")</f>
+        <v/>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D2" s="28" t="str">
+        <f t="shared" ref="B2:D15" si="0">IF(C2=E2,"","x")</f>
+        <v/>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F2" s="28" t="str">
+        <f t="shared" ref="F2:H2" si="1">IF(E2=G2,"","x")</f>
+        <v/>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H2" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>1619</v>
+      </c>
+      <c r="J2" s="28" t="str">
+        <f t="shared" ref="J2" si="2">IF(I2=K2,"","x")</f>
+        <v/>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B3" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D3" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F3" s="28" t="str">
+        <f t="shared" ref="F3" si="3">IF(E3=G3,"","x")</f>
+        <v/>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H3" s="28" t="str">
+        <f t="shared" ref="H3:J3" si="4">IF(G3=I3,"","x")</f>
+        <v/>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J3" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B4" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D4" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F4" s="28" t="str">
+        <f t="shared" ref="F4" si="5">IF(E4=G4,"","x")</f>
+        <v/>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H4" s="28" t="str">
+        <f t="shared" ref="H4:J4" si="6">IF(G4=I4,"","x")</f>
+        <v/>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J4" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="28" t="str">
+        <f t="shared" ref="F5" si="7">IF(E5=G5,"","x")</f>
+        <v/>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="28" t="str">
+        <f t="shared" ref="H5:J5" si="8">IF(G5=I5,"","x")</f>
+        <v/>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="28" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K5" s="45"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B6" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D6" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F6" s="28" t="str">
+        <f t="shared" ref="F6:F23" si="9">IF(E6=G6,"","x")</f>
+        <v/>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H6" s="28" t="str">
+        <f t="shared" ref="H6" si="10">IF(G6=I6,"","x")</f>
+        <v/>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J6" s="28" t="str">
+        <f t="shared" ref="J6" si="11">IF(I6=K6,"","x")</f>
+        <v/>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B7" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D7" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F7" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H7" s="28" t="str">
+        <f t="shared" ref="H7" si="12">IF(G7=I7,"","x")</f>
+        <v/>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J7" s="28" t="str">
+        <f t="shared" ref="J7" si="13">IF(I7=K7,"","x")</f>
+        <v/>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B8" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D8" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F8" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H8" s="28" t="str">
+        <f t="shared" ref="H8" si="14">IF(G8=I8,"","x")</f>
+        <v/>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>1739</v>
+      </c>
+      <c r="J8" s="28" t="str">
+        <f t="shared" ref="J8" si="15">IF(I8=K8,"","x")</f>
+        <v/>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B9" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D9" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F9" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H9" s="28" t="str">
+        <f t="shared" ref="H9" si="16">IF(G9=I9,"","x")</f>
+        <v/>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J9" s="28" t="str">
+        <f t="shared" ref="J9" si="17">IF(I9=K9,"","x")</f>
+        <v/>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="28" t="str">
+        <f t="shared" ref="H10" si="18">IF(G10=I10,"","x")</f>
+        <v/>
+      </c>
+      <c r="I10" s="45"/>
+      <c r="J10" s="28" t="str">
+        <f t="shared" ref="J10" si="19">IF(I10=K10,"","x")</f>
+        <v/>
+      </c>
+      <c r="K10" s="45"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="28" t="str">
+        <f t="shared" ref="D11" si="20">IF(C11=E11,"","x")</f>
+        <v/>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="28" t="str">
+        <f t="shared" ref="H11" si="21">IF(G11=I11,"","x")</f>
+        <v/>
+      </c>
+      <c r="I11" s="45"/>
+      <c r="J11" s="28" t="str">
+        <f t="shared" ref="J11" si="22">IF(I11=K11,"","x")</f>
+        <v/>
+      </c>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B12" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D12" s="28" t="str">
+        <f t="shared" ref="D12" si="23">IF(C12=E12,"","x")</f>
+        <v/>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F12" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H12" s="28" t="str">
+        <f t="shared" ref="H12" si="24">IF(G12=I12,"","x")</f>
+        <v/>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>1712</v>
+      </c>
+      <c r="J12" s="28" t="str">
+        <f t="shared" ref="J12" si="25">IF(I12=K12,"","x")</f>
+        <v/>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D13" s="28" t="str">
+        <f t="shared" ref="D13" si="26">IF(C13=E13,"","x")</f>
+        <v/>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F13" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>1713</v>
+      </c>
+      <c r="H13" s="28" t="str">
+        <f t="shared" ref="H13" si="27">IF(G13=I13,"","x")</f>
+        <v/>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J13" s="28" t="str">
+        <f t="shared" ref="J13:J52" si="28">IF(I13=K13,"","x")</f>
+        <v/>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D14" s="28" t="str">
+        <f t="shared" ref="D14" si="29">IF(C14=E14,"","x")</f>
+        <v/>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F14" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H14" s="28" t="str">
+        <f t="shared" ref="H14" si="30">IF(G14=I14,"","x")</f>
+        <v/>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>1714</v>
+      </c>
+      <c r="J14" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D15" s="28" t="str">
+        <f t="shared" ref="D15" si="31">IF(C15=E15,"","x")</f>
+        <v/>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F15" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H15" s="28" t="str">
+        <f t="shared" ref="H15" si="32">IF(G15=I15,"","x")</f>
+        <v/>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J15" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
+      <c r="B16" s="28" t="str">
+        <f t="shared" ref="B16" si="33">IF(A16=C16,"","x")</f>
+        <v/>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="28" t="str">
+        <f t="shared" ref="D16:D21" si="34">IF(C16=E16,"","x")</f>
+        <v/>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="28" t="str">
+        <f t="shared" ref="H16" si="35">IF(G16=I16,"","x")</f>
+        <v/>
+      </c>
+      <c r="I16" s="45"/>
+      <c r="J16" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B17" s="28" t="str">
+        <f t="shared" ref="B17" si="36">IF(A17=C17,"","x")</f>
+        <v/>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D17" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F17" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H17" s="28" t="str">
+        <f t="shared" ref="H17" si="37">IF(G17=I17,"","x")</f>
+        <v/>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>1716</v>
+      </c>
+      <c r="J17" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B18" s="28" t="str">
+        <f t="shared" ref="B18" si="38">IF(A18=C18,"","x")</f>
+        <v/>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D18" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F18" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H18" s="28" t="str">
+        <f t="shared" ref="H18" si="39">IF(G18=I18,"","x")</f>
+        <v/>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J18" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B19" s="28" t="str">
+        <f t="shared" ref="B19" si="40">IF(A19=C19,"","x")</f>
+        <v/>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D19" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F19" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H19" s="28" t="str">
+        <f t="shared" ref="H19" si="41">IF(G19=I19,"","x")</f>
+        <v/>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>1718</v>
+      </c>
+      <c r="J19" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B20" s="28" t="str">
+        <f t="shared" ref="B20" si="42">IF(A20=C20,"","x")</f>
+        <v/>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D20" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F20" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H20" s="28" t="str">
+        <f t="shared" ref="H20" si="43">IF(G20=I20,"","x")</f>
+        <v/>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>1748</v>
+      </c>
+      <c r="J20" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="28" t="str">
+        <f t="shared" ref="B21" si="44">IF(A21=C21,"","x")</f>
+        <v/>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="28" t="str">
+        <f t="shared" ref="H21" si="45">IF(G21=I21,"","x")</f>
+        <v/>
+      </c>
+      <c r="I21" s="45"/>
+      <c r="J21" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K21" s="45"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B22" s="28" t="str">
+        <f t="shared" ref="B22" si="46">IF(A22=C22,"","x")</f>
+        <v/>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D22" s="28" t="str">
+        <f t="shared" ref="D22" si="47">IF(C22=E22,"","x")</f>
+        <v/>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F22" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H22" s="28" t="str">
+        <f t="shared" ref="H22" si="48">IF(G22=I22,"","x")</f>
+        <v/>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>1719</v>
+      </c>
+      <c r="J22" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+      <c r="B23" s="28" t="str">
+        <f t="shared" ref="B23:B67" si="49">IF(A23=C23,"","x")</f>
+        <v/>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="28" t="str">
+        <f t="shared" ref="D23" si="50">IF(C23=E23,"","x")</f>
+        <v/>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="28" t="str">
+        <f t="shared" ref="H23" si="51">IF(G23=I23,"","x")</f>
+        <v/>
+      </c>
+      <c r="I23" s="45"/>
+      <c r="J23" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K23" s="45"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="28" t="str">
+        <f>IF(E26=G24,"","x")</f>
+        <v/>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H24" s="28" t="str">
+        <f t="shared" ref="H24" si="52">IF(G24=I24,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>1758</v>
+      </c>
+      <c r="J24" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K24" s="45" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="28" t="str">
+        <f>IF(E29=G25,"","x")</f>
+        <v/>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H25" s="28" t="str">
+        <f t="shared" ref="H25" si="53">IF(G25=I25,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>1759</v>
+      </c>
+      <c r="J25" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K25" s="45" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="46" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B26" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D26" s="28" t="str">
+        <f t="shared" ref="D26:D66" si="54">IF(C26=E26,"","x")</f>
+        <v/>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F26" s="28" t="str">
+        <f>IF(E30=G26,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H26" s="28" t="str">
+        <f t="shared" ref="H26" si="55">IF(G26=I26,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>1769</v>
+      </c>
+      <c r="J26" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="28" t="str">
+        <f>IF(E31=G27,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H27" s="28" t="str">
+        <f t="shared" ref="H27" si="56">IF(G27=I27,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I27" s="45"/>
+      <c r="J27" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K27" s="45"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="28" t="str">
+        <f>IF(E32=G28,"","x")</f>
+        <v/>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H28" s="28" t="str">
+        <f t="shared" ref="H28" si="57">IF(G28=I28,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>1760</v>
+      </c>
+      <c r="J28" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K28" s="45" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="46" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B29" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D29" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F29" s="28" t="str">
+        <f>IF(E33=G29,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H29" s="28" t="str">
+        <f t="shared" ref="H29" si="58">IF(G29=I29,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>1770</v>
+      </c>
+      <c r="J29" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="B30" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v>x</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D30" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v>x</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F30" s="28" t="str">
+        <f>IF(E34=G30,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H30" s="28" t="str">
+        <f t="shared" ref="H30" si="59">IF(G30=I30,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I30" s="45"/>
+      <c r="J30" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K30" s="45"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="46"/>
+      <c r="B31" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v>x</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D31" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v>x</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F31" s="28" t="str">
+        <f>IF(E35=G31,"","x")</f>
+        <v/>
+      </c>
+      <c r="G31" s="45"/>
+      <c r="H31" s="28" t="str">
+        <f>IF(G31=I31,"","x")</f>
+        <v/>
+      </c>
+      <c r="I31" s="45"/>
+      <c r="J31" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K31" s="45"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B32" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D32" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F32" s="28" t="str">
+        <f>IF(E47=G32,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H32" s="28" t="str">
+        <f t="shared" ref="H32" si="60">IF(G32=I32,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I32" s="45" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J32" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K32" s="45" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v>x</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D33" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v>x</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F33" s="28" t="str">
+        <f>IF(E48=G33,"","x")</f>
+        <v/>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H33" s="28" t="str">
+        <f t="shared" ref="H33" si="61">IF(G33=I33,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I33" s="45"/>
+      <c r="J33" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K33" s="45"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v>x</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D34" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v>x</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F34" s="28" t="str">
+        <f>IF(E49=G34,"","x")</f>
+        <v/>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H34" s="28" t="str">
+        <f t="shared" ref="H34" si="62">IF(G34=I34,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I34" s="45"/>
+      <c r="J34" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K34" s="45"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+      <c r="B35" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E35" s="45"/>
+      <c r="F35" s="28" t="str">
+        <f>IF(E50=G35,"","x")</f>
+        <v/>
+      </c>
+      <c r="G35" s="45" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H35" s="28" t="str">
+        <f t="shared" ref="H35" si="63">IF(G35=I35,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I35" s="45"/>
+      <c r="J35" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K35" s="45"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="46"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="28" t="str">
+        <f>IF(E51=G36,"","x")</f>
+        <v/>
+      </c>
+      <c r="G36" s="45" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H36" s="28" t="str">
+        <f t="shared" ref="H36" si="64">IF(G36=I36,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>1762</v>
+      </c>
+      <c r="J36" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K36" s="45" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="46"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="28" t="str">
+        <f>IF(E52=G37,"","x")</f>
+        <v/>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H37" s="28" t="str">
+        <f>IF(G37=I37,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I37" s="45" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J37" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K37" s="45" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="46"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="28" t="str">
+        <f>IF(E53=G38,"","x")</f>
+        <v/>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H38" s="28" t="str">
+        <f>IF(G38=I40,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I38" s="45"/>
+      <c r="J38" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>x</v>
+      </c>
+      <c r="K38" s="45" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="46"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="28" t="str">
+        <f>IF(E54=G39,"","x")</f>
+        <v/>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H39" s="28" t="str">
+        <f>IF(G39=I41,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I39" s="45"/>
+      <c r="J39" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>x</v>
+      </c>
+      <c r="K39" s="45" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="46"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="28" t="str">
+        <f>IF(E55=G40,"","x")</f>
+        <v/>
+      </c>
+      <c r="G40" s="45"/>
+      <c r="H40" s="28" t="str">
+        <f>IF(G40=I42,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I40" s="45" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J40" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>x</v>
+      </c>
+      <c r="K40" s="45" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="46"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="28" t="str">
+        <f>IF(E57=G41,"","x")</f>
+        <v/>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H41" s="28" t="str">
+        <f>IF(G41=I43,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I41" s="45" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J41" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="46"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="28" t="str">
+        <f>IF(E58=G42,"","x")</f>
+        <v/>
+      </c>
+      <c r="G42" s="45" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H42" s="28" t="str">
+        <f>IF(G42=I44,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I42" s="45" t="s">
+        <v>1772</v>
+      </c>
+      <c r="J42" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>x</v>
+      </c>
+      <c r="K42" s="45" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="46"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="28" t="str">
+        <f>IF(E59=G43,"","x")</f>
+        <v/>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H43" s="28" t="str">
+        <f>IF(G43=I45,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I43" s="45" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J43" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K43" s="45" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="46"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="28" t="str">
+        <f>IF(E60=G44,"","x")</f>
+        <v/>
+      </c>
+      <c r="G44" s="45"/>
+      <c r="H44" s="28" t="str">
+        <f>IF(G44=I46,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I44" s="45" t="s">
+        <v>1766</v>
+      </c>
+      <c r="J44" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K44" s="45" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="46"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="28" t="str">
+        <f>IF(E61=G45,"","x")</f>
+        <v/>
+      </c>
+      <c r="G45" s="45"/>
+      <c r="H45" s="28" t="str">
+        <f>IF(G45=I47,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I45" s="45" t="s">
+        <v>1773</v>
+      </c>
+      <c r="J45" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K45" s="45" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="46"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="28" t="str">
+        <f>IF(E62=G46,"","x")</f>
+        <v/>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H46" s="28" t="str">
+        <f>IF(G46=I48,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I46" s="45" t="s">
+        <v>1767</v>
+      </c>
+      <c r="J46" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K46" s="45" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="46" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B47" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v>x</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D47" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v>x</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F47" s="28" t="str">
+        <f>IF(E63=G47,"","x")</f>
+        <v/>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H47" s="28" t="str">
+        <f>IF(G47=I49,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I47" s="45" t="s">
+        <v>1768</v>
+      </c>
+      <c r="J47" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K47" s="45" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="46" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B48" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D48" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F48" s="28" t="str">
+        <f>IF(E64=G48,"","x")</f>
+        <v/>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H48" s="28" t="str">
+        <f>IF(G48=I50,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I48" s="45"/>
+      <c r="J48" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K48" s="45"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="46" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B49" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D49" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F49" s="28" t="str">
+        <f>IF(E65=G49,"","x")</f>
+        <v/>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H49" s="28" t="str">
+        <f>IF(G49=I51,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I49" s="45" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J49" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K49" s="45" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="46" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B50" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D50" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F50" s="28" t="str">
+        <f>IF(E66=G50,"","x")</f>
+        <v/>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H50" s="28" t="str">
+        <f>IF(G50=I52,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I50" s="45" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J50" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K50" s="45" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="46"/>
+      <c r="B51" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v>x</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D51" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F51" s="28" t="str">
+        <f>IF(E67=G51,"","x")</f>
+        <v/>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H51" s="28" t="str">
+        <f>IF(G51=I53,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I51" s="45" t="s">
+        <v>1725</v>
+      </c>
+      <c r="J51" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K51" s="45" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="46"/>
+      <c r="B52" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v>x</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D52" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="H52" s="28" t="str">
+        <f>IF(G52=I54,"","x")</f>
+        <v/>
+      </c>
+      <c r="I52" s="45" t="s">
+        <v>1774</v>
+      </c>
+      <c r="J52" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K52" s="45" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="46" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B53" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D53" s="28" t="str">
+        <f t="shared" ref="D53" si="65">IF(C53=E53,"","x")</f>
+        <v/>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H53" s="28" t="str">
+        <f>IF(G53=I55,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I53" s="45"/>
+      <c r="J53" s="28" t="str">
+        <f>IF(I53=K55,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K53" s="45"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="46" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B54" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D54" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H54" s="28" t="str">
+        <f>IF(G54=I56,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I54" s="45"/>
+      <c r="J54" s="28" t="str">
+        <f>IF(I54=K56,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K54" s="45"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="46"/>
+      <c r="B55" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C55" s="45"/>
+      <c r="D55" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E55" s="45"/>
+      <c r="H55" s="28" t="str">
+        <f>IF(G55=I57,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I55" s="45" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J55" s="28" t="str">
+        <f>IF(I55=K57,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K55" s="45" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="46"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="45"/>
+      <c r="H56" s="28" t="str">
+        <f>IF(G56=I58,"","x")</f>
+        <v/>
+      </c>
+      <c r="I56" s="45" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J56" s="28" t="str">
+        <f>IF(I56=K58,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K56" s="45" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="46" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B57" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D57" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H57" s="28" t="str">
+        <f>IF(G57=I59,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I57" s="45" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J57" s="28" t="str">
+        <f>IF(I57=K59,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K57" s="45" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="46" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B58" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D58" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H58" s="28" t="str">
+        <f>IF(G58=I60,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I58" s="45"/>
+      <c r="J58" s="28" t="str">
+        <f>IF(I58=K60,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K58" s="45"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="46" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B59" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D59" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H59" s="28" t="str">
+        <f>IF(G59=I61,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I59" s="45" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J59" s="28" t="str">
+        <f>IF(I59=K61,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K59" s="45" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="46"/>
+      <c r="B60" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C60" s="45"/>
+      <c r="D60" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E60" s="45"/>
+      <c r="H60" s="28" t="str">
+        <f>IF(G60=I62,"","x")</f>
+        <v/>
+      </c>
+      <c r="I60" s="45" t="s">
+        <v>1730</v>
+      </c>
+      <c r="J60" s="28" t="str">
+        <f>IF(I60=K62,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K60" s="45" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="46"/>
+      <c r="B61" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C61" s="45"/>
+      <c r="D61" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E61" s="45"/>
+      <c r="H61" s="28" t="str">
+        <f>IF(G61=I63,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I61" s="45" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J61" s="28" t="str">
+        <f>IF(I61=K63,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K61" s="45" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="46" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B62" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D62" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H62" s="28" t="str">
+        <f>IF(G62=I64,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I62" s="45"/>
+      <c r="J62" s="28" t="str">
+        <f>IF(I62=K64,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K62" s="45"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="46" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B63" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D63" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E63" s="45" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H63" s="28" t="str">
+        <f>IF(G63=I65,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I63" s="45" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J63" s="28" t="str">
+        <f>IF(I63=K65,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K63" s="45" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="46" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B64" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D64" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H64" s="28" t="str">
+        <f>IF(G64=I66,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J64" s="28" t="str">
+        <f>IF(I64=K66,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K64" s="45" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="46" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B65" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D65" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H65" s="28" t="str">
+        <f>IF(G65=I67,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J65" s="28" t="str">
+        <f>IF(I65=K67,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K65" s="45" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="46" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B66" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D66" s="28" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H66" s="28" t="str">
+        <f>IF(G66=I68,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>1734</v>
+      </c>
+      <c r="J66" s="28" t="str">
+        <f>IF(I66=K68,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K66" s="45" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="46" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B67" s="28" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="45" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H67" s="28" t="str">
+        <f>IF(G67=I69,"","x")</f>
+        <v/>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>1735</v>
+      </c>
+      <c r="J67" s="28" t="str">
+        <f>IF(I67=K69,"","x")</f>
+        <v>x</v>
+      </c>
+      <c r="K67" s="45" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
+      <c r="E68" s="45"/>
+      <c r="I68" s="14" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K68" s="45" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="46"/>
+      <c r="K69" s="45"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="46"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="46"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="46"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>